--- a/image/coverageeligibilityrequest.xlsx
+++ b/image/coverageeligibilityrequest.xlsx
@@ -1118,45 +1118,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="55.12890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="55.3828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="51.1328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="51.421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="120.64453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="55.71484375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="53.7421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="121.30859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="55.35546875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="54.05859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="33.046875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="25.74609375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="25.01171875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="22.671875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/image/coverageeligibilityrequest.xlsx
+++ b/image/coverageeligibilityrequest.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1868" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1868" uniqueCount="309">
   <si>
     <t>Path</t>
   </si>
@@ -168,7 +168,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -614,10 +614,6 @@
   </si>
   <si>
     <t>CoverageEligibilityRequest.supportingInfo.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -1118,45 +1114,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="55.3828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="55.12890625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="51.421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="51.1328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="121.30859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="55.35546875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="54.05859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="120.64453125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="55.71484375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="53.7421875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="25.01171875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="33.046875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="25.74609375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="22.67578125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3640,13 +3636,13 @@
         <v>40</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3697,36 +3693,36 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>197</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3755,7 +3751,7 @@
         <v>95</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M24" t="s" s="2">
         <v>97</v>
@@ -3808,7 +3804,7 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -3832,16 +3828,16 @@
         <v>40</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -3863,10 +3859,10 @@
         <v>94</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>97</v>
@@ -3921,7 +3917,7 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
@@ -3950,7 +3946,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3973,17 +3969,17 @@
         <v>40</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>40</v>
@@ -4032,7 +4028,7 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>49</v>
@@ -4061,7 +4057,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4084,19 +4080,19 @@
         <v>40</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>40</v>
@@ -4145,7 +4141,7 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>49</v>
@@ -4174,7 +4170,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4197,17 +4193,17 @@
         <v>40</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>40</v>
@@ -4256,7 +4252,7 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4285,7 +4281,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4311,16 +4307,16 @@
         <v>186</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>40</v>
@@ -4369,7 +4365,7 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4398,7 +4394,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4421,13 +4417,13 @@
         <v>40</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4478,36 +4474,36 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM30" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>197</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4536,7 +4532,7 @@
         <v>95</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M31" t="s" s="2">
         <v>97</v>
@@ -4589,7 +4585,7 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4613,16 +4609,16 @@
         <v>40</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -4644,10 +4640,10 @@
         <v>94</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="M32" t="s" s="2">
         <v>97</v>
@@ -4702,7 +4698,7 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -4731,7 +4727,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4754,19 +4750,19 @@
         <v>40</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>40</v>
@@ -4815,7 +4811,7 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -4844,7 +4840,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4867,17 +4863,17 @@
         <v>40</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>40</v>
@@ -4926,7 +4922,7 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>49</v>
@@ -4955,7 +4951,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4978,17 +4974,17 @@
         <v>40</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>193</v>
+        <v>51</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>40</v>
@@ -5037,7 +5033,7 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5066,7 +5062,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5092,14 +5088,14 @@
         <v>186</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>40</v>
@@ -5148,7 +5144,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5177,7 +5173,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5200,13 +5196,13 @@
         <v>40</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5257,36 +5253,36 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>197</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5315,7 +5311,7 @@
         <v>95</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M38" t="s" s="2">
         <v>97</v>
@@ -5368,7 +5364,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5392,16 +5388,16 @@
         <v>40</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -5423,10 +5419,10 @@
         <v>94</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="M39" t="s" s="2">
         <v>97</v>
@@ -5481,7 +5477,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -5510,7 +5506,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5533,17 +5529,17 @@
         <v>40</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>253</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>40</v>
@@ -5592,7 +5588,7 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -5621,7 +5617,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5647,16 +5643,16 @@
         <v>122</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>40</v>
@@ -5684,11 +5680,11 @@
         <v>126</v>
       </c>
       <c r="X41" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="Y41" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="Y41" t="s" s="2">
-        <v>261</v>
-      </c>
       <c r="Z41" t="s" s="2">
         <v>40</v>
       </c>
@@ -5705,7 +5701,7 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -5734,7 +5730,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5760,16 +5756,16 @@
         <v>122</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>40</v>
@@ -5797,11 +5793,11 @@
         <v>126</v>
       </c>
       <c r="X42" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="Y42" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="Y42" t="s" s="2">
-        <v>268</v>
-      </c>
       <c r="Z42" t="s" s="2">
         <v>40</v>
       </c>
@@ -5818,7 +5814,7 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
@@ -5847,7 +5843,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5873,16 +5869,16 @@
         <v>122</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>40</v>
@@ -5910,11 +5906,11 @@
         <v>126</v>
       </c>
       <c r="X43" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="Y43" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="Y43" t="s" s="2">
-        <v>275</v>
-      </c>
       <c r="Z43" t="s" s="2">
         <v>40</v>
       </c>
@@ -5931,7 +5927,7 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -5960,7 +5956,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5986,14 +5982,14 @@
         <v>159</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>277</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>40</v>
@@ -6042,7 +6038,7 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6071,7 +6067,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6094,17 +6090,17 @@
         <v>40</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>40</v>
@@ -6153,7 +6149,7 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6182,7 +6178,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6205,17 +6201,17 @@
         <v>40</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>40</v>
@@ -6264,7 +6260,7 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -6293,7 +6289,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6316,17 +6312,17 @@
         <v>40</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="K47" t="s" s="2">
         <v>181</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>40</v>
@@ -6375,7 +6371,7 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -6404,7 +6400,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6430,14 +6426,14 @@
         <v>186</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>40</v>
@@ -6486,7 +6482,7 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
@@ -6507,7 +6503,7 @@
         <v>40</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>40</v>
@@ -6515,7 +6511,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6538,13 +6534,13 @@
         <v>40</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6595,36 +6591,36 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM49" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>197</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6653,7 +6649,7 @@
         <v>95</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M50" t="s" s="2">
         <v>97</v>
@@ -6706,7 +6702,7 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
@@ -6730,16 +6726,16 @@
         <v>40</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -6761,10 +6757,10 @@
         <v>94</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="M51" t="s" s="2">
         <v>97</v>
@@ -6819,7 +6815,7 @@
         <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
@@ -6848,7 +6844,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6871,17 +6867,17 @@
         <v>40</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="K52" t="s" s="2">
+      <c r="L52" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>40</v>
@@ -6909,11 +6905,11 @@
         <v>126</v>
       </c>
       <c r="X52" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="Y52" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="Y52" t="s" s="2">
-        <v>305</v>
-      </c>
       <c r="Z52" t="s" s="2">
         <v>40</v>
       </c>
@@ -6930,7 +6926,7 @@
         <v>40</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
@@ -6959,7 +6955,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -6982,17 +6978,17 @@
         <v>40</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>40</v>
@@ -7041,7 +7037,7 @@
         <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
